--- a/biology/Médecine/Signe_de_Nikolsky/Signe_de_Nikolsky.xlsx
+++ b/biology/Médecine/Signe_de_Nikolsky/Signe_de_Nikolsky.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le signe de Nikolsky est une observation dermatologique mise en évidence par le médecin russe Piotr Nikolski qui témoigne d'un processus d'acantholyse.
 Ce signe peut être observé en exerçant un mouvement de cisaillement de l'épiderme ou un frottement de la peau à la base d'une lésion. Si cette pression ou ce frottement entraîne un décollement cutané, cela objecte d'une dermatose bulleuse.
